--- a/lab3/DicData.xlsx
+++ b/lab3/DicData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>G:\Oanhhh\c#\image\lab3\Jobs\businessman.png</t>
   </si>
@@ -41,6 +41,78 @@
   </si>
   <si>
     <t>chef</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\color\carrot.png</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\animal\giraffe.png</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\fruit\rose-apple.png</t>
+  </si>
+  <si>
+    <t>rose-apple</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\fruit\coconut.png</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\fruit\apricot.png</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\fruit\carambola.png</t>
+  </si>
+  <si>
+    <t>carambola</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\animal\chameleon.png</t>
+  </si>
+  <si>
+    <t>chameleon</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\animal\cat.png</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\animal\dog.png</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\color\pink.png</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\color\brown.png</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\color\babyblue.png</t>
+  </si>
+  <si>
+    <t>babyblue</t>
   </si>
 </sst>
 </file>
@@ -384,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -432,36 +504,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab3/DicData.xlsx
+++ b/lab3/DicData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>G:\Oanhhh\c#\image\lab3\Jobs\businessman.png</t>
   </si>
@@ -113,6 +113,51 @@
   </si>
   <si>
     <t>babyblue</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\Jobs\soldier.png</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\Jobs\student.png</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\Jobs\electrician.png</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\fruit\mango.png</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\animal\elephant.png</t>
+  </si>
+  <si>
+    <t>meo</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\color\berry.png</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>G:\Oanhhh\c#\image\lab3\Jobs\builder.png</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -454,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +542,54 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -504,9 +597,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -544,6 +637,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -551,7 +652,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -591,6 +692,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,7 +707,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -641,6 +750,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
